--- a/output/fit_clients/fit_round_301.xlsx
+++ b/output/fit_clients/fit_round_301.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1927282071.218571</v>
+        <v>2474561633.734141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09750209724459698</v>
+        <v>0.08545285736680114</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03204823701172405</v>
+        <v>0.04134639530307064</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>963641021.4467911</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1689531815.788618</v>
+        <v>2206442376.311476</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1844526316446026</v>
+        <v>0.1678799855480593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04121991065663685</v>
+        <v>0.04590140671852991</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>844765899.874647</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3685106846.392839</v>
+        <v>3290219303.862247</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1296919696305834</v>
+        <v>0.1604798345155654</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03728356404771093</v>
+        <v>0.02409829609598834</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>109</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1842553415.070889</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3441010599.930558</v>
+        <v>2840205860.58071</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09198789172258272</v>
+        <v>0.09592000861928562</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04278843423548154</v>
+        <v>0.03818402432597208</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1720505340.647803</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2347824396.466228</v>
+        <v>2713904228.138342</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1023972991209793</v>
+        <v>0.1022388634620119</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05254113874943327</v>
+        <v>0.03735911474370828</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>57</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1173912190.18757</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3064261328.621693</v>
+        <v>3094468305.117983</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06377310206635368</v>
+        <v>0.07132450936872677</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03993197232254019</v>
+        <v>0.0365935347536728</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>94</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1532130623.00578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2501591818.296058</v>
+        <v>3622940905.692556</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1607674558934555</v>
+        <v>0.1619029425768072</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02258557095241507</v>
+        <v>0.02964080585953952</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1250795915.712055</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1804591283.435846</v>
+        <v>1862714557.172988</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1542973683395888</v>
+        <v>0.1460630466437766</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03046448671043349</v>
+        <v>0.02570454442690222</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>902295695.4447027</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4302300362.623386</v>
+        <v>4958766884.562921</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1688544308283643</v>
+        <v>0.1792890503772833</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03375996997362871</v>
+        <v>0.05163974491407818</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>127</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2151150226.593366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3604265138.390443</v>
+        <v>3255842212.040027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1890931864610104</v>
+        <v>0.1570715632525847</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04852835791069943</v>
+        <v>0.03438394765487829</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>124</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1802132554.260693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2585860365.932308</v>
+        <v>2517311348.613612</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1362372861211194</v>
+        <v>0.1851502028075781</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05340078738439342</v>
+        <v>0.03435984132665579</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>103</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1292930163.071881</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4256124984.237675</v>
+        <v>5249272508.801345</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07320697180002711</v>
+        <v>0.09324125406359172</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01928498063100227</v>
+        <v>0.02732612988194482</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>101</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2128062534.043681</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3380006303.630978</v>
+        <v>3669513370.673898</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1555211334085474</v>
+        <v>0.1685978734025664</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0331997241251332</v>
+        <v>0.03768754734804838</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>97</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1690003158.733591</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1288193882.500746</v>
+        <v>1659995209.15533</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08611717672145784</v>
+        <v>0.08230339551160035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04750591640104134</v>
+        <v>0.03182474598913195</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>644096978.7293026</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2535279190.228503</v>
+        <v>2015987597.106797</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08412311933031608</v>
+        <v>0.0765013921071671</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04582334216583671</v>
+        <v>0.03442206941333119</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>59</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1267639622.780134</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5066051019.153249</v>
+        <v>3289031546.180843</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1171476355114962</v>
+        <v>0.1166724690721162</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05180070399783453</v>
+        <v>0.03617287791963171</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2533025491.43625</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3467866626.523508</v>
+        <v>2417949664.099039</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1487891200584549</v>
+        <v>0.1565857987400392</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02230932728204658</v>
+        <v>0.02845580934526109</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>98</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1733933309.698802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1356007260.742505</v>
+        <v>1113291062.611887</v>
       </c>
       <c r="F19" t="n">
-        <v>0.185929596770591</v>
+        <v>0.1711240324257018</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02626182871084617</v>
+        <v>0.01907977065485626</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>678003746.2932057</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2043762815.641771</v>
+        <v>2396231769.530167</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1100248309803252</v>
+        <v>0.1391519019422224</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02960084628110222</v>
+        <v>0.02264949018012222</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1021881429.51348</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2648293448.071366</v>
+        <v>2468909442.280672</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0826084012777831</v>
+        <v>0.09157969199312312</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03518496230937238</v>
+        <v>0.02829672387028447</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1324146697.991718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2469469784.325853</v>
+        <v>2582231842.415833</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1368913358518684</v>
+        <v>0.1093263693537893</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04791268320183344</v>
+        <v>0.05665883306421183</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>84</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1234734985.467952</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1116439949.204229</v>
+        <v>1106177957.124804</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1644204761421873</v>
+        <v>0.1736964446267211</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04000666609009642</v>
+        <v>0.03429250663560177</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>558220025.1695564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3160783290.191774</v>
+        <v>2839057616.891749</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1289194752155498</v>
+        <v>0.09173920116455818</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03307112195822076</v>
+        <v>0.02994078356294192</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>88</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1580391669.509757</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1113378129.468078</v>
+        <v>1019671498.892639</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09824212529012089</v>
+        <v>0.105931850056585</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0190360085056303</v>
+        <v>0.02180642080490967</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>556689102.6538094</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>905672034.4904531</v>
+        <v>1454796643.387658</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09337537257854882</v>
+        <v>0.1076879372183863</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03366113418699999</v>
+        <v>0.03243292932414073</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>452835966.2494853</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3741998176.329706</v>
+        <v>4020754195.876628</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1386425939919734</v>
+        <v>0.1422127604277395</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02703580805110884</v>
+        <v>0.0168647237029667</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1870999111.16012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3669131117.168345</v>
+        <v>3520692258.869245</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1455205667277931</v>
+        <v>0.1219918067108284</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03638709434647402</v>
+        <v>0.03102387186185317</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1834565627.886147</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4281301471.810225</v>
+        <v>5310093435.236985</v>
       </c>
       <c r="F29" t="n">
-        <v>0.149890016389278</v>
+        <v>0.1219706701007154</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03248198942194765</v>
+        <v>0.02863752053643013</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>133</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2140650733.267402</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1615279543.396114</v>
+        <v>1829952817.357187</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1141206862278192</v>
+        <v>0.1384316296629735</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03232734352799255</v>
+        <v>0.03876310181116427</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>807639765.3282094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1069872685.733475</v>
+        <v>1224423274.952199</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07039891764578242</v>
+        <v>0.09405171199911792</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04808963338645837</v>
+        <v>0.05087505118600025</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>534936324.9610781</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1525140798.282294</v>
+        <v>1276610149.125811</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07389926857323645</v>
+        <v>0.1053210960528053</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03204664047518509</v>
+        <v>0.03135763470146823</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>762570472.6775677</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2301677321.446265</v>
+        <v>2338733573.578741</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1529631723489665</v>
+        <v>0.1556235033791127</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05004030269077502</v>
+        <v>0.04546927702587341</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>89</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1150838715.807175</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1126850178.875958</v>
+        <v>1451865254.628449</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1012629747698216</v>
+        <v>0.1211810961371301</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02665290148481324</v>
+        <v>0.02594949055226522</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>563425106.5348388</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>936175061.4644872</v>
+        <v>1269044377.760326</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1139675558696214</v>
+        <v>0.1046079082412905</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0278729860521948</v>
+        <v>0.0303504098426433</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>468087563.2992709</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2559804849.71841</v>
+        <v>2001352639.998237</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1443436905281935</v>
+        <v>0.1467126326475151</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02484466470264638</v>
+        <v>0.0187667686180217</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>75</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1279902442.056902</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2308803619.232392</v>
+        <v>1888469779.319382</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09927753593728632</v>
+        <v>0.1061510363593359</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03980838393995908</v>
+        <v>0.04149629784652507</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>78</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1154401879.41259</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2023441583.15969</v>
+        <v>1966829922.213443</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09251660878226697</v>
+        <v>0.08017151893423637</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02560794596226935</v>
+        <v>0.02716283282136015</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1011720766.893682</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1473349426.485929</v>
+        <v>1735142200.760653</v>
       </c>
       <c r="F39" t="n">
-        <v>0.132881480818099</v>
+        <v>0.151504601751294</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02015512810607198</v>
+        <v>0.02354435991181216</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>736674787.7325754</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1406533446.240111</v>
+        <v>1618476585.751162</v>
       </c>
       <c r="F40" t="n">
-        <v>0.115704298976743</v>
+        <v>0.159303434851517</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03739413219899022</v>
+        <v>0.05936003338505986</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>703266712.7212961</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2368838859.963017</v>
+        <v>1980244400.815133</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1249314454338801</v>
+        <v>0.1341579250068589</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03139594141221888</v>
+        <v>0.03251943066056315</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>75</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1184419468.067851</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3510329742.202609</v>
+        <v>4042900961.83091</v>
       </c>
       <c r="F42" t="n">
-        <v>0.11162052125089</v>
+        <v>0.08709946074176579</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04546959485696282</v>
+        <v>0.02890049254693497</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1755164866.693742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1896492081.919101</v>
+        <v>3085448813.651037</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1761384414392784</v>
+        <v>0.1589300875830492</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02281465026646252</v>
+        <v>0.0166005801415358</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" t="n">
-        <v>948246150.3152677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1617740634.431267</v>
+        <v>2047621816.356357</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09157459076187902</v>
+        <v>0.07508359342675543</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02315604824733355</v>
+        <v>0.032957531620723</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>808870347.2779841</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1650836771.477711</v>
+        <v>2231567685.093774</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1763961591613096</v>
+        <v>0.1261819166030895</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04922313463269632</v>
+        <v>0.04650038449000816</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>825418341.416536</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5340686834.808502</v>
+        <v>5583944193.887657</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1146902152847685</v>
+        <v>0.1682638765547265</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05518073474237992</v>
+        <v>0.03848622100053226</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>107</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2670343463.694706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3411262870.337282</v>
+        <v>4386338008.66311</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1466518080181954</v>
+        <v>0.1362674913370107</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04836605401984129</v>
+        <v>0.0484764240532109</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>81</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1705631400.936659</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3375793948.372568</v>
+        <v>4171867986.868003</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07276954312021763</v>
+        <v>0.1043338575947046</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02505183646466174</v>
+        <v>0.03159133647138129</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1687897044.819084</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1499615470.150477</v>
+        <v>1847060690.087899</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1462083718788725</v>
+        <v>0.1557033414387753</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0381823284268385</v>
+        <v>0.04243382521975221</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>749807767.1619413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2958027950.115591</v>
+        <v>3144031339.530325</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1361606586820438</v>
+        <v>0.1315332910961315</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03888563236582481</v>
+        <v>0.05107619656978134</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>102</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1479014037.869814</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1523458508.343012</v>
+        <v>1236841103.105955</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1913563576692578</v>
+        <v>0.1869410641712191</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04040426267297732</v>
+        <v>0.03901311159322738</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>761729253.2934405</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4677512248.204768</v>
+        <v>4857849951.497302</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0903679896451282</v>
+        <v>0.1042643386630149</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05182362240705221</v>
+        <v>0.04020885042749743</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>124</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2338756140.70692</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3586548315.306483</v>
+        <v>3190007127.498463</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1232090837359391</v>
+        <v>0.1456529594013882</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0254295331347991</v>
+        <v>0.02383430023791927</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>86</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1793274149.612314</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4973888921.475888</v>
+        <v>3222751221.702807</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1544449745500482</v>
+        <v>0.1123256732953817</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0338979363047083</v>
+        <v>0.03329342138815033</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>97</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2486944601.298543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3503067582.28196</v>
+        <v>3892572414.299399</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2126068296527092</v>
+        <v>0.2084871101236215</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0197800884935404</v>
+        <v>0.02273923720569665</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>88</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1751533744.120794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1353811093.317329</v>
+        <v>1144154956.764251</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1457460783586342</v>
+        <v>0.1216407514688599</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03568028136183964</v>
+        <v>0.04293523841291904</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>676905610.5782567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4497079930.228275</v>
+        <v>3554476890.017148</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1480980250294755</v>
+        <v>0.1271744460490316</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0187770050504302</v>
+        <v>0.01806008289483744</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>96</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2248540095.220183</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1838703818.836838</v>
+        <v>1424639879.394477</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1644236478942847</v>
+        <v>0.1342999932742514</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02822496381377439</v>
+        <v>0.03553259700495582</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>919351909.643014</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4657321906.877087</v>
+        <v>4709244259.339484</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07920949951463875</v>
+        <v>0.111618019755885</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04426068612522603</v>
+        <v>0.04724213818223903</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>83</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2328660897.665576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2855444666.171736</v>
+        <v>2586812569.304317</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1458117222378796</v>
+        <v>0.1870375212004231</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02687862345753175</v>
+        <v>0.02389167905284073</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>94</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1427722388.272886</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2683086020.756373</v>
+        <v>3151187686.167902</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1805949883717931</v>
+        <v>0.1676917219037561</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03298726536383337</v>
+        <v>0.02353707615056883</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>104</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1341543020.725933</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1935736595.478013</v>
+        <v>1873413213.464175</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1415944780187221</v>
+        <v>0.1268981504364128</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03101588093228672</v>
+        <v>0.03521219194133616</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>967868346.1382571</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4909955375.638487</v>
+        <v>5181476608.101219</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08743454664594039</v>
+        <v>0.08855324763808359</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02974412027376716</v>
+        <v>0.03285689347269558</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>87</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2454977709.592928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4720295364.655084</v>
+        <v>5010915056.498921</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1601273692507375</v>
+        <v>0.1433883254781788</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02598592717742399</v>
+        <v>0.03116761483854531</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>93</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2360147768.852275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3945101267.188862</v>
+        <v>5925925464.72166</v>
       </c>
       <c r="F65" t="n">
-        <v>0.136127624602701</v>
+        <v>0.1734694704823441</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02649889145152617</v>
+        <v>0.02932991522723943</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>108</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1972550655.458798</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4679728251.243695</v>
+        <v>5340772996.925846</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1437483992275397</v>
+        <v>0.1543147717141697</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03508356468406526</v>
+        <v>0.04093738298258313</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>87</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2339864135.606922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3375933023.387951</v>
+        <v>2754193238.433694</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09705731520010288</v>
+        <v>0.07639710108203518</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04208687651338753</v>
+        <v>0.03617368758369231</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>97</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1687966498.099281</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5354071453.444942</v>
+        <v>5390449938.45225</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1410151324467599</v>
+        <v>0.1434884136684476</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03179886941562836</v>
+        <v>0.0437635328243545</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2677035804.566401</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2254361230.596697</v>
+        <v>1742163856.60844</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1678989084041152</v>
+        <v>0.1559509893988509</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0408680193670875</v>
+        <v>0.04936424612085965</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1127180653.130614</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3420580910.571877</v>
+        <v>2961075084.630547</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08885020734972791</v>
+        <v>0.08046764856087593</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03439310223298445</v>
+        <v>0.04641690650621853</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>86</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1710290459.607436</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3867544769.350376</v>
+        <v>5312145918.945807</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1310882779279131</v>
+        <v>0.1709504922211441</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02442994292337229</v>
+        <v>0.03028004524739632</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>110</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1933772405.839585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1954815463.698367</v>
+        <v>2021042879.107632</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07625909266285248</v>
+        <v>0.1072906835990806</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05240463035550289</v>
+        <v>0.05157487386036574</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>977407685.5011401</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2842194900.647476</v>
+        <v>3285507110.505285</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1043192886080787</v>
+        <v>0.1119049910686384</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03796901242099889</v>
+        <v>0.05026309733958904</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>114</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1421097460.766943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3034055410.851257</v>
+        <v>3396159983.712921</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1422460326059296</v>
+        <v>0.1575828288741432</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03098509029859353</v>
+        <v>0.02931812687450176</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>102</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1517027767.847475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2132594763.650364</v>
+        <v>1580433363.849646</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1162882250120832</v>
+        <v>0.1386196713060014</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03656074813832003</v>
+        <v>0.02311175373988526</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1066297333.64345</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3747099956.117762</v>
+        <v>4210492926.02599</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09065988851986045</v>
+        <v>0.07983951228594094</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03160268148718487</v>
+        <v>0.02556655941902546</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>74</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1873549952.198971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2170636761.374126</v>
+        <v>2103133654.359977</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1127554965637745</v>
+        <v>0.1560231135539953</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02052224150371573</v>
+        <v>0.0243881257976615</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1085318467.4092</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4042220863.583257</v>
+        <v>4767357141.783643</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1124936552187498</v>
+        <v>0.1165284126745437</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03476025017821217</v>
+        <v>0.050106053019384</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>104</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2021110394.499631</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1879327931.095961</v>
+        <v>1834290770.518928</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1290320782927145</v>
+        <v>0.1231402044515723</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02809006417257725</v>
+        <v>0.03600524220829606</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>939664066.123382</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4110871293.788936</v>
+        <v>5419414049.403071</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06945919696464271</v>
+        <v>0.09532117025586097</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02974083277137599</v>
+        <v>0.03257818615077918</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>63</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2055435651.873225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4182239078.59035</v>
+        <v>4272355033.57369</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08354024167556</v>
+        <v>0.1267980259236557</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02764141202401656</v>
+        <v>0.02446573539211128</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>69</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2091119509.285868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5307066383.701381</v>
+        <v>5472535864.647244</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2030505123964533</v>
+        <v>0.1311245184495271</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01991694731627118</v>
+        <v>0.02745923255624202</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>105</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2653533158.640102</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2045302940.849392</v>
+        <v>1629094625.942583</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1147297656863159</v>
+        <v>0.1091733028733668</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03157653699761867</v>
+        <v>0.03042693891145657</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1022651461.406396</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2352924361.831513</v>
+        <v>2210650831.681746</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107315803336908</v>
+        <v>0.07720107690537721</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04266602472889811</v>
+        <v>0.04846528183360595</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1176462134.281973</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2949931016.839886</v>
+        <v>2263528306.546511</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1421595618527515</v>
+        <v>0.1542173555015252</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05289164838907438</v>
+        <v>0.05157393830895968</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>114</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1474965563.045369</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2230000792.648739</v>
+        <v>2612883481.386337</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1397799746268455</v>
+        <v>0.1242901749927231</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02069753663595916</v>
+        <v>0.02284874647915568</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>41</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1115000455.919296</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>986511784.0488666</v>
+        <v>1220086365.36677</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1356061343060512</v>
+        <v>0.179308507762249</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04107368098677255</v>
+        <v>0.02923216928322041</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>493255892.9109064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3287017413.552263</v>
+        <v>2289030968.79603</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1721296093387242</v>
+        <v>0.1311319518631386</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03719140831941422</v>
+        <v>0.02910972737888658</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>119</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1643508765.586688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3509695467.668132</v>
+        <v>2564973583.983977</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1508395982012451</v>
+        <v>0.133147515267616</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03749209142754183</v>
+        <v>0.0321434349218867</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>103</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1754847734.586065</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1471021139.174562</v>
+        <v>1805540495.731199</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1039657892186566</v>
+        <v>0.09911037115271204</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04304603059874466</v>
+        <v>0.05600377099841371</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>735510542.9952321</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1936192985.430779</v>
+        <v>2040394603.601545</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1218514126386743</v>
+        <v>0.1350577925529718</v>
       </c>
       <c r="G91" t="n">
-        <v>0.060242494712973</v>
+        <v>0.05307787903615973</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>968096473.4751937</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2316267477.455102</v>
+        <v>1860257432.348232</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09115129506608881</v>
+        <v>0.1001011039453892</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0451502645093523</v>
+        <v>0.02971653369426997</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>77</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1158133708.79181</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4088036339.56503</v>
+        <v>4873221021.248293</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09927271734642716</v>
+        <v>0.0938947078656122</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04218061035638399</v>
+        <v>0.05256465933437342</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2044018164.718306</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1855703364.794828</v>
+        <v>2506779823.369403</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1316782767347185</v>
+        <v>0.1070434289938071</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03921436202402526</v>
+        <v>0.03508719325655089</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>927851662.0209883</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2347554871.909317</v>
+        <v>3240102802.611958</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08787556473280045</v>
+        <v>0.1047063450234975</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0384120325097838</v>
+        <v>0.04531227053042942</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>72</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1173777483.165622</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2344244914.818859</v>
+        <v>2107236446.40247</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08945726553339531</v>
+        <v>0.08663096320793133</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03108874882682311</v>
+        <v>0.04026641797780046</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1172122407.650101</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3476930669.491124</v>
+        <v>4261650409.244727</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1596544185027536</v>
+        <v>0.1658563151950367</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02722581689262936</v>
+        <v>0.02735531802122525</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>98</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1738465349.060147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3038713360.344682</v>
+        <v>3265212886.885036</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0849469556818826</v>
+        <v>0.1029831085804569</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02055389706040008</v>
+        <v>0.02030525055590762</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>79</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1519356667.522098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2704634523.004079</v>
+        <v>2989695516.620871</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1321048538990443</v>
+        <v>0.1258749834231286</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02970968172215178</v>
+        <v>0.02258440533011824</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>94</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1352317226.041053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2983864124.805219</v>
+        <v>3039815693.774379</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1727331517433861</v>
+        <v>0.1628871105486838</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01817258421431049</v>
+        <v>0.02551078104189681</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>92</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1491932051.96339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3492640866.689519</v>
+        <v>3133316525.642406</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1641626188970104</v>
+        <v>0.1646135870584625</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0506051097604962</v>
+        <v>0.03848950798105883</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>119</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1746320587.510179</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_301.xlsx
+++ b/output/fit_clients/fit_round_301.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2474561633.734141</v>
+        <v>1949078154.619814</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08545285736680114</v>
+        <v>0.09609051745144409</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04134639530307064</v>
+        <v>0.04206253722144674</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2206442376.311476</v>
+        <v>1620984269.376497</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1678799855480593</v>
+        <v>0.1399589257548067</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04590140671852991</v>
+        <v>0.0383485584429266</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3290219303.862247</v>
+        <v>3372207972.379458</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1604798345155654</v>
+        <v>0.1557777896199021</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02409829609598834</v>
+        <v>0.03118230315377716</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2840205860.58071</v>
+        <v>3065296506.825065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09592000861928562</v>
+        <v>0.08883601617603827</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03818402432597208</v>
+        <v>0.0364671071300107</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2713904228.138342</v>
+        <v>2540963178.96385</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1022388634620119</v>
+        <v>0.1112174222029891</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03735911474370828</v>
+        <v>0.04597859429356291</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3094468305.117983</v>
+        <v>1921319734.231518</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07132450936872677</v>
+        <v>0.08834499975848542</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0365935347536728</v>
+        <v>0.04457346915316222</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3622940905.692556</v>
+        <v>3161719924.732804</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1619029425768072</v>
+        <v>0.1368504210726115</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02964080585953952</v>
+        <v>0.02688268132099247</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1862714557.172988</v>
+        <v>2100119054.783217</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1460630466437766</v>
+        <v>0.1199268267868158</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02570454442690222</v>
+        <v>0.02789708470608018</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4958766884.562921</v>
+        <v>4738483189.242211</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1792890503772833</v>
+        <v>0.1627170685983908</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05163974491407818</v>
+        <v>0.03356041755508029</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3255842212.040027</v>
+        <v>2845795098.736239</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1570715632525847</v>
+        <v>0.1593447198132286</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03438394765487829</v>
+        <v>0.04537056984101087</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2517311348.613612</v>
+        <v>2132822222.322236</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1851502028075781</v>
+        <v>0.1299614474774468</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03435984132665579</v>
+        <v>0.05183157104232182</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5249272508.801345</v>
+        <v>3983887655.789848</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09324125406359172</v>
+        <v>0.07575723094713305</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02732612988194482</v>
+        <v>0.02738947932728593</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3669513370.673898</v>
+        <v>2463071504.015489</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1685978734025664</v>
+        <v>0.1207246601607197</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03768754734804838</v>
+        <v>0.03444782445506132</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1659995209.15533</v>
+        <v>1591274002.119363</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08230339551160035</v>
+        <v>0.08626693820106089</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03182474598913195</v>
+        <v>0.04594692542279873</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2015987597.106797</v>
+        <v>2607568966.042105</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0765013921071671</v>
+        <v>0.1152733213373556</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03442206941333119</v>
+        <v>0.04806148894135667</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3289031546.180843</v>
+        <v>4744595650.943602</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1166724690721162</v>
+        <v>0.1135991343396787</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03617287791963171</v>
+        <v>0.04772360721998732</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2417949664.099039</v>
+        <v>3866399824.652956</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1565857987400392</v>
+        <v>0.1836853529131519</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02845580934526109</v>
+        <v>0.02248557487318248</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1113291062.611887</v>
+        <v>1018869705.507028</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1711240324257018</v>
+        <v>0.1735820028084787</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01907977065485626</v>
+        <v>0.02516216279019417</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2396231769.530167</v>
+        <v>2058434566.43708</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1391519019422224</v>
+        <v>0.1230873556310533</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02264949018012222</v>
+        <v>0.02953266313687228</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2468909442.280672</v>
+        <v>2243038920.51754</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09157969199312312</v>
+        <v>0.09877982180220822</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02829672387028447</v>
+        <v>0.03883496977639846</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2582231842.415833</v>
+        <v>2505399265.513406</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1093263693537893</v>
+        <v>0.08730735349677381</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05665883306421183</v>
+        <v>0.03577665326484249</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1106177957.124804</v>
+        <v>1526817402.116153</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1736964446267211</v>
+        <v>0.1846424316480118</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03429250663560177</v>
+        <v>0.05470043132715115</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2839057616.891749</v>
+        <v>4019590399.846148</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09173920116455818</v>
+        <v>0.131685690665573</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02994078356294192</v>
+        <v>0.03443871224418567</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1019671498.892639</v>
+        <v>1464795830.454675</v>
       </c>
       <c r="F25" t="n">
-        <v>0.105931850056585</v>
+        <v>0.08649290465492011</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02180642080490967</v>
+        <v>0.02097458966416572</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1454796643.387658</v>
+        <v>1230809790.031474</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1076879372183863</v>
+        <v>0.09353490538838953</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03243292932414073</v>
+        <v>0.02666866385001375</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4020754195.876628</v>
+        <v>3036513003.175486</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1422127604277395</v>
+        <v>0.1185624466838697</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0168647237029667</v>
+        <v>0.01856651310297045</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3520692258.869245</v>
+        <v>2854289653.173226</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1219918067108284</v>
+        <v>0.09194716845475809</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03102387186185317</v>
+        <v>0.04698104449426164</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5310093435.236985</v>
+        <v>5076606214.592834</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1219706701007154</v>
+        <v>0.1441493175470709</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02863752053643013</v>
+        <v>0.0308037300833328</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1829952817.357187</v>
+        <v>1678314319.209479</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1384316296629735</v>
+        <v>0.08945883933973725</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03876310181116427</v>
+        <v>0.03375180614260499</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1224423274.952199</v>
+        <v>1261024218.824182</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09405171199911792</v>
+        <v>0.08177804424992423</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05087505118600025</v>
+        <v>0.05191229137799534</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1276610149.125811</v>
+        <v>1154298713.503682</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1053210960528053</v>
+        <v>0.08594612461563397</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03135763470146823</v>
+        <v>0.0239596287656515</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2338733573.578741</v>
+        <v>2047012226.467983</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1556235033791127</v>
+        <v>0.1720934387812826</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04546927702587341</v>
+        <v>0.04448853295462742</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1451865254.628449</v>
+        <v>1180748032.186006</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1211810961371301</v>
+        <v>0.1214708415639507</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02594949055226522</v>
+        <v>0.02035433158607415</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1269044377.760326</v>
+        <v>1257146293.882824</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1046079082412905</v>
+        <v>0.07642289741686474</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0303504098426433</v>
+        <v>0.03790835863021963</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2001352639.998237</v>
+        <v>2259181777.01465</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1467126326475151</v>
+        <v>0.1811807463568391</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0187667686180217</v>
+        <v>0.02091743027724446</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1888469779.319382</v>
+        <v>2532518612.374613</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1061510363593359</v>
+        <v>0.1122941982280073</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04149629784652507</v>
+        <v>0.03721919053885729</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1966829922.213443</v>
+        <v>1452150922.291866</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08017151893423637</v>
+        <v>0.08504669166343432</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02716283282136015</v>
+        <v>0.03341716369338216</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1735142200.760653</v>
+        <v>1445215486.488047</v>
       </c>
       <c r="F39" t="n">
-        <v>0.151504601751294</v>
+        <v>0.1188754892285739</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02354435991181216</v>
+        <v>0.02183264073276221</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1618476585.751162</v>
+        <v>1144437019.486873</v>
       </c>
       <c r="F40" t="n">
-        <v>0.159303434851517</v>
+        <v>0.1351955911504182</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05936003338505986</v>
+        <v>0.03725677359378111</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1980244400.815133</v>
+        <v>2017257245.368392</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1341579250068589</v>
+        <v>0.1284965469270939</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03251943066056315</v>
+        <v>0.03967960628684795</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4042900961.83091</v>
+        <v>3967346222.106015</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08709946074176579</v>
+        <v>0.1018120164300178</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02890049254693497</v>
+        <v>0.04622774279761287</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3085448813.651037</v>
+        <v>2357568418.500431</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1589300875830492</v>
+        <v>0.197183636027061</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0166005801415358</v>
+        <v>0.01649487690316392</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2047621816.356357</v>
+        <v>2291814552.022107</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07508359342675543</v>
+        <v>0.08769570727671737</v>
       </c>
       <c r="G44" t="n">
-        <v>0.032957531620723</v>
+        <v>0.02363364409610251</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2231567685.093774</v>
+        <v>2390528827.249867</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1261819166030895</v>
+        <v>0.1852718981649757</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04650038449000816</v>
+        <v>0.04509751582980076</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5583944193.887657</v>
+        <v>4762218903.775685</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1682638765547265</v>
+        <v>0.1454690287441232</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03848622100053226</v>
+        <v>0.05823623060967199</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4386338008.66311</v>
+        <v>4888425722.706759</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1362674913370107</v>
+        <v>0.1582993647578452</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0484764240532109</v>
+        <v>0.04361474635807604</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4171867986.868003</v>
+        <v>2978937684.780648</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1043338575947046</v>
+        <v>0.1018096786000207</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03159133647138129</v>
+        <v>0.03844185760149418</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1847060690.087899</v>
+        <v>1517268148.50041</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1557033414387753</v>
+        <v>0.156755183130882</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04243382521975221</v>
+        <v>0.03806243678640681</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3144031339.530325</v>
+        <v>4221248148.51879</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1315332910961315</v>
+        <v>0.1086474425414928</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05107619656978134</v>
+        <v>0.0528123758608311</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1236841103.105955</v>
+        <v>1080887681.840131</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1869410641712191</v>
+        <v>0.1417699098440269</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03901311159322738</v>
+        <v>0.04038048866640037</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4857849951.497302</v>
+        <v>4204560275.391231</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1042643386630149</v>
+        <v>0.08447127672711424</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04020885042749743</v>
+        <v>0.04686232885848548</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3190007127.498463</v>
+        <v>3090938088.456785</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1456529594013882</v>
+        <v>0.1704119676143044</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02383430023791927</v>
+        <v>0.03368858386231383</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3222751221.702807</v>
+        <v>3326514316.530836</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1123256732953817</v>
+        <v>0.168496587154891</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03329342138815033</v>
+        <v>0.05034584122206642</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3892572414.299399</v>
+        <v>4891052765.911036</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2084871101236215</v>
+        <v>0.2231951776624506</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02273923720569665</v>
+        <v>0.02788345760863899</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1144154956.764251</v>
+        <v>1572993008.111943</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1216407514688599</v>
+        <v>0.1159605613512105</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04293523841291904</v>
+        <v>0.03801984947141863</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3554476890.017148</v>
+        <v>3822586060.509512</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1271744460490316</v>
+        <v>0.1141674603170419</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01806008289483744</v>
+        <v>0.02355629438964168</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1424639879.394477</v>
+        <v>1353239204.067513</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1342999932742514</v>
+        <v>0.1776129241152611</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03553259700495582</v>
+        <v>0.03952914040264008</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4709244259.339484</v>
+        <v>3438251512.025606</v>
       </c>
       <c r="F59" t="n">
-        <v>0.111618019755885</v>
+        <v>0.08903639344207832</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04724213818223903</v>
+        <v>0.04884025872643526</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2586812569.304317</v>
+        <v>3533573203.837625</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1870375212004231</v>
+        <v>0.1881935413823953</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02389167905284073</v>
+        <v>0.02829378786733592</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3151187686.167902</v>
+        <v>2084482952.754107</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1676917219037561</v>
+        <v>0.1196388191944585</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02353707615056883</v>
+        <v>0.02876732035752603</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1873413213.464175</v>
+        <v>1460227011.599263</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1268981504364128</v>
+        <v>0.1653792689915002</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03521219194133616</v>
+        <v>0.04190554231744659</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5181476608.101219</v>
+        <v>4405294430.868259</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08855324763808359</v>
+        <v>0.100191598966485</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03285689347269558</v>
+        <v>0.03817034402078054</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5010915056.498921</v>
+        <v>3584174553.329654</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1433883254781788</v>
+        <v>0.1677501048137189</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03116761483854531</v>
+        <v>0.03112725589768239</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5925925464.72166</v>
+        <v>4193679740.637278</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1734694704823441</v>
+        <v>0.1341129768721402</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02932991522723943</v>
+        <v>0.028287969091408</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5340772996.925846</v>
+        <v>4937142567.89274</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1543147717141697</v>
+        <v>0.1559800168356127</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04093738298258313</v>
+        <v>0.03225969798085958</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2754193238.433694</v>
+        <v>3001663047.542807</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07639710108203518</v>
+        <v>0.09840465630261204</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03617368758369231</v>
+        <v>0.04307166825575957</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5390449938.45225</v>
+        <v>5635955530.545681</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1434884136684476</v>
+        <v>0.1093534424986193</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0437635328243545</v>
+        <v>0.0380096362724627</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1742163856.60844</v>
+        <v>2197235174.190773</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1559509893988509</v>
+        <v>0.1498918102309354</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04936424612085965</v>
+        <v>0.03659922008684931</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2961075084.630547</v>
+        <v>3158793265.007952</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08046764856087593</v>
+        <v>0.07074846670688122</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04641690650621853</v>
+        <v>0.04229493798248801</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5312145918.945807</v>
+        <v>3936377495.700961</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1709504922211441</v>
+        <v>0.1825823689738943</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03028004524739632</v>
+        <v>0.02899643482494604</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2021042879.107632</v>
+        <v>1381632854.526888</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1072906835990806</v>
+        <v>0.07492066032968714</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05157487386036574</v>
+        <v>0.04685935930998837</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3285507110.505285</v>
+        <v>2713442847.378043</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1119049910686384</v>
+        <v>0.07619101075539055</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05026309733958904</v>
+        <v>0.04974088707218812</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3396159983.712921</v>
+        <v>3919229783.055086</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1575828288741432</v>
+        <v>0.1813041793833211</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02931812687450176</v>
+        <v>0.02612227261659621</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1580433363.849646</v>
+        <v>1615821204.128513</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1386196713060014</v>
+        <v>0.1025753359586085</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02311175373988526</v>
+        <v>0.03245946689242007</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4210492926.02599</v>
+        <v>5104131528.411662</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07983951228594094</v>
+        <v>0.1224099572529954</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02556655941902546</v>
+        <v>0.02942324170436066</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2103133654.359977</v>
+        <v>1753948485.186488</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1560231135539953</v>
+        <v>0.1495687590094943</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0243881257976615</v>
+        <v>0.01941729389841765</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4767357141.783643</v>
+        <v>4041447066.591931</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1165284126745437</v>
+        <v>0.09054173464269835</v>
       </c>
       <c r="G78" t="n">
-        <v>0.050106053019384</v>
+        <v>0.05226807726639746</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1834290770.518928</v>
+        <v>1527816611.828199</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1231402044515723</v>
+        <v>0.1564391010460907</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03600524220829606</v>
+        <v>0.02617677233552712</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5419414049.403071</v>
+        <v>4943295901.830723</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09532117025586097</v>
+        <v>0.08422902348734967</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03257818615077918</v>
+        <v>0.03322817692736446</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4272355033.57369</v>
+        <v>3203668675.610931</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1267980259236557</v>
+        <v>0.09084746003502465</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02446573539211128</v>
+        <v>0.02623896149227451</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5472535864.647244</v>
+        <v>4107940081.738246</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1311245184495271</v>
+        <v>0.2095837687078631</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02745923255624202</v>
+        <v>0.02584528503177123</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1629094625.942583</v>
+        <v>1910455100.79431</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1091733028733668</v>
+        <v>0.09977187734657866</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03042693891145657</v>
+        <v>0.04068492320247735</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2210650831.681746</v>
+        <v>2600915355.753462</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07720107690537721</v>
+        <v>0.1076701950689368</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04846528183360595</v>
+        <v>0.05012400185734903</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2263528306.546511</v>
+        <v>3047530307.241445</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1542173555015252</v>
+        <v>0.1338219217467673</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05157393830895968</v>
+        <v>0.03575366514672277</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2612883481.386337</v>
+        <v>2009132810.734731</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1242901749927231</v>
+        <v>0.1330986695604014</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02284874647915568</v>
+        <v>0.01863116264814541</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1220086365.36677</v>
+        <v>1368517475.976893</v>
       </c>
       <c r="F87" t="n">
-        <v>0.179308507762249</v>
+        <v>0.1604633427800995</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02923216928322041</v>
+        <v>0.03156761569631333</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2289030968.79603</v>
+        <v>3182816848.525838</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1311319518631386</v>
+        <v>0.1382374700782954</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02910972737888658</v>
+        <v>0.03354553584401866</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2564973583.983977</v>
+        <v>3200609521.673758</v>
       </c>
       <c r="F89" t="n">
-        <v>0.133147515267616</v>
+        <v>0.1055639360507077</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0321434349218867</v>
+        <v>0.03211249179950848</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1805540495.731199</v>
+        <v>1585359569.089809</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09911037115271204</v>
+        <v>0.1187503102952017</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05600377099841371</v>
+        <v>0.05390588291013945</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2040394603.601545</v>
+        <v>1643124499.242988</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1350577925529718</v>
+        <v>0.1471144922896996</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05307787903615973</v>
+        <v>0.04246936049353448</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1860257432.348232</v>
+        <v>1805490746.220927</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1001011039453892</v>
+        <v>0.0689519919974913</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02971653369426997</v>
+        <v>0.02987769167402429</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4873221021.248293</v>
+        <v>4602148141.500788</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0938947078656122</v>
+        <v>0.1241079671838214</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05256465933437342</v>
+        <v>0.04759145331880028</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2506779823.369403</v>
+        <v>1925599232.242393</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1070434289938071</v>
+        <v>0.1680890578805651</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03508719325655089</v>
+        <v>0.03365773338467037</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3240102802.611958</v>
+        <v>2042331953.80799</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1047063450234975</v>
+        <v>0.1026337120424868</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04531227053042942</v>
+        <v>0.0462520845008314</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2107236446.40247</v>
+        <v>2115825947.66076</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08663096320793133</v>
+        <v>0.09896127209546328</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04026641797780046</v>
+        <v>0.03967715701535737</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4261650409.244727</v>
+        <v>4525874360.079247</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1658563151950367</v>
+        <v>0.1235963624094117</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02735531802122525</v>
+        <v>0.01983766065010697</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3265212886.885036</v>
+        <v>2901620224.519898</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1029831085804569</v>
+        <v>0.1204795776941221</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02030525055590762</v>
+        <v>0.0220085049916652</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2989695516.620871</v>
+        <v>2385185447.145237</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1258749834231286</v>
+        <v>0.11686670264042</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02258440533011824</v>
+        <v>0.02500442229830075</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3039815693.774379</v>
+        <v>3290613498.959929</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1628871105486838</v>
+        <v>0.1297960382733136</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02551078104189681</v>
+        <v>0.01797057510083803</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3133316525.642406</v>
+        <v>3125279030.45403</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1646135870584625</v>
+        <v>0.221504940762931</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03848950798105883</v>
+        <v>0.04629981649098185</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_301.xlsx
+++ b/output/fit_clients/fit_round_301.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1949078154.619814</v>
+        <v>2506046882.957614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09609051745144409</v>
+        <v>0.1133539637330675</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04206253722144674</v>
+        <v>0.03101189720170484</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1620984269.376497</v>
+        <v>1715120730.035919</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1399589257548067</v>
+        <v>0.1311894883989418</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0383485584429266</v>
+        <v>0.03400724648284486</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3372207972.379458</v>
+        <v>4388108118.20841</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1557777896199021</v>
+        <v>0.1384143770060887</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03118230315377716</v>
+        <v>0.03587026563327821</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>158</v>
+      </c>
+      <c r="J4" t="n">
+        <v>301</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3065296506.825065</v>
+        <v>2849556838.681103</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08883601617603827</v>
+        <v>0.08367740585683692</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0364671071300107</v>
+        <v>0.03383049310152843</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>123</v>
+      </c>
+      <c r="J5" t="n">
+        <v>298</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2540963178.96385</v>
+        <v>2152278501.14745</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1112174222029891</v>
+        <v>0.1333321578968046</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04597859429356291</v>
+        <v>0.0348631575753493</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1921319734.231518</v>
+        <v>3140718291.538874</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08834499975848542</v>
+        <v>0.08172293364909793</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04457346915316222</v>
+        <v>0.03387745946691349</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3161719924.732804</v>
+        <v>3689598506.812577</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1368504210726115</v>
+        <v>0.1983281503475899</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02688268132099247</v>
+        <v>0.02987097373754148</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>80</v>
+      </c>
+      <c r="J8" t="n">
+        <v>301</v>
+      </c>
+      <c r="K8" t="n">
+        <v>91.01426294269591</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2100119054.783217</v>
+        <v>2223055310.570957</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1199268267868158</v>
+        <v>0.1841079548878602</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02789708470608018</v>
+        <v>0.03362994230005476</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4738483189.242211</v>
+        <v>3710104312.474711</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1627170685983908</v>
+        <v>0.2103006567910795</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03356041755508029</v>
+        <v>0.04767735636458612</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>266</v>
+      </c>
+      <c r="J10" t="n">
+        <v>301</v>
+      </c>
+      <c r="K10" t="n">
+        <v>85.43507420596062</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2845795098.736239</v>
+        <v>3694020125.543179</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1593447198132286</v>
+        <v>0.1363514345753018</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04537056984101087</v>
+        <v>0.04455511055002588</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>120</v>
+      </c>
+      <c r="J11" t="n">
+        <v>301</v>
+      </c>
+      <c r="K11" t="n">
+        <v>96.38088390547242</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2132822222.322236</v>
+        <v>3252478621.926357</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1299614474774468</v>
+        <v>0.1744633053632916</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05183157104232182</v>
+        <v>0.04169330417916255</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3983887655.789848</v>
+        <v>4471998069.648523</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07575723094713305</v>
+        <v>0.1016248866257472</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02738947932728593</v>
+        <v>0.03106196183710919</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>154</v>
+      </c>
+      <c r="J13" t="n">
+        <v>301</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2463071504.015489</v>
+        <v>2939754648.822917</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1207246601607197</v>
+        <v>0.1741096867437281</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03444782445506132</v>
+        <v>0.03791554169125318</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>298</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1591274002.119363</v>
+        <v>1441132774.998622</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08626693820106089</v>
+        <v>0.08672262079792312</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04594692542279873</v>
+        <v>0.02991302743501241</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2607568966.042105</v>
+        <v>1894296061.587183</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1152733213373556</v>
+        <v>0.1122204012479149</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04806148894135667</v>
+        <v>0.03204665050658461</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4744595650.943602</v>
+        <v>4864267063.840115</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1135991343396787</v>
+        <v>0.1064214327061668</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04772360721998732</v>
+        <v>0.0474393756308154</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>142</v>
+      </c>
+      <c r="J17" t="n">
+        <v>301</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3866399824.652956</v>
+        <v>2910761600.890016</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1836853529131519</v>
+        <v>0.1346514059857623</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02248557487318248</v>
+        <v>0.02892048275071435</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J18" t="n">
+        <v>298</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1018869705.507028</v>
+        <v>1027621306.681642</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1735820028084787</v>
+        <v>0.1714434167927558</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02516216279019417</v>
+        <v>0.02742663737115563</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2058434566.43708</v>
+        <v>2073427966.448488</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1230873556310533</v>
+        <v>0.1171088715174061</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02953266313687228</v>
+        <v>0.02466126023747422</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2243038920.51754</v>
+        <v>1957450104.909377</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09877982180220822</v>
+        <v>0.07682456995681441</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03883496977639846</v>
+        <v>0.03662081020503283</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2505399265.513406</v>
+        <v>2943063997.741631</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08730735349677381</v>
+        <v>0.1437438311672829</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03577665326484249</v>
+        <v>0.04644340715269512</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>82</v>
+      </c>
+      <c r="J22" t="n">
+        <v>300</v>
+      </c>
+      <c r="K22" t="n">
+        <v>53.56052623726399</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1526817402.116153</v>
+        <v>942083168.3179696</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1846424316480118</v>
+        <v>0.1340454455996892</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05470043132715115</v>
+        <v>0.0532518055345054</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4019590399.846148</v>
+        <v>3361750413.429553</v>
       </c>
       <c r="F24" t="n">
-        <v>0.131685690665573</v>
+        <v>0.126261999778015</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03443871224418567</v>
+        <v>0.03619303049027254</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>299</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1464795830.454675</v>
+        <v>1309931769.396975</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08649290465492011</v>
+        <v>0.09204156060243501</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02097458966416572</v>
+        <v>0.02484852955299109</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1230809790.031474</v>
+        <v>1427056357.092592</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09353490538838953</v>
+        <v>0.09895564433076739</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02666866385001375</v>
+        <v>0.03095832506671668</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3036513003.175486</v>
+        <v>4223545581.539573</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1185624466838697</v>
+        <v>0.1062538019343434</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01856651310297045</v>
+        <v>0.01690186582516731</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>124</v>
+      </c>
+      <c r="J27" t="n">
+        <v>301</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2854289653.173226</v>
+        <v>3590651030.506752</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09194716845475809</v>
+        <v>0.1177898369240974</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04698104449426164</v>
+        <v>0.04237720734846541</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>301</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5076606214.592834</v>
+        <v>5587419305.37867</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1441493175470709</v>
+        <v>0.1257442824896578</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0308037300833328</v>
+        <v>0.03451840349588299</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>283</v>
+      </c>
+      <c r="J29" t="n">
+        <v>300</v>
+      </c>
+      <c r="K29" t="n">
+        <v>82.56295729320841</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1678314319.209479</v>
+        <v>1905089217.129877</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08945883933973725</v>
+        <v>0.1147611181434905</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03375180614260499</v>
+        <v>0.03945015445032123</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1261024218.824182</v>
+        <v>1364859977.90442</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08177804424992423</v>
+        <v>0.07682654269015146</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05191229137799534</v>
+        <v>0.04726440954374465</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1154298713.503682</v>
+        <v>1714998595.181964</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08594612461563397</v>
+        <v>0.08076672382005803</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0239596287656515</v>
+        <v>0.03559897983554453</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2047012226.467983</v>
+        <v>2011805212.285139</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1720934387812826</v>
+        <v>0.1417737030943386</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04448853295462742</v>
+        <v>0.04425103296603229</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1180748032.186006</v>
+        <v>1018186482.560066</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1214708415639507</v>
+        <v>0.1045896773987968</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02035433158607415</v>
+        <v>0.02804229931434486</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1257146293.882824</v>
+        <v>1027965372.865832</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07642289741686474</v>
+        <v>0.08409231346392031</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03790835863021963</v>
+        <v>0.0288042606487961</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2259181777.01465</v>
+        <v>2663870032.530636</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1811807463568391</v>
+        <v>0.1327142096462332</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02091743027724446</v>
+        <v>0.02194873018853189</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2532518612.374613</v>
+        <v>2481355182.146203</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1122941982280073</v>
+        <v>0.1066683704480298</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03721919053885729</v>
+        <v>0.03089399637852229</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1452150922.291866</v>
+        <v>1589139766.621462</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08504669166343432</v>
+        <v>0.1089759654568273</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03341716369338216</v>
+        <v>0.03394623015462624</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1445215486.488047</v>
+        <v>1487012617.954805</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1188754892285739</v>
+        <v>0.1385661535743613</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02183264073276221</v>
+        <v>0.03256450325432714</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1144437019.486873</v>
+        <v>1134493222.142052</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1351955911504182</v>
+        <v>0.1002662543903341</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03725677359378111</v>
+        <v>0.04114388977071858</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2017257245.368392</v>
+        <v>2237967638.81889</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1284965469270939</v>
+        <v>0.141818841413601</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03967960628684795</v>
+        <v>0.03443305692873264</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1911,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3967346222.106015</v>
+        <v>4170834765.269787</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1018120164300178</v>
+        <v>0.1201640085503151</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04622774279761287</v>
+        <v>0.02894925500022424</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>123</v>
+      </c>
+      <c r="J42" t="n">
+        <v>301</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2357568418.500431</v>
+        <v>2870982919.748112</v>
       </c>
       <c r="F43" t="n">
-        <v>0.197183636027061</v>
+        <v>0.1735220636368343</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01649487690316392</v>
+        <v>0.02197664374667842</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2291814552.022107</v>
+        <v>2116989877.496446</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08769570727671737</v>
+        <v>0.07794869583182969</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02363364409610251</v>
+        <v>0.03635737077571746</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2390528827.249867</v>
+        <v>1860800482.22796</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1852718981649757</v>
+        <v>0.1702894977366257</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04509751582980076</v>
+        <v>0.0457047340344777</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4762218903.775685</v>
+        <v>4379550361.827567</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1454690287441232</v>
+        <v>0.1284940073959318</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05823623060967199</v>
+        <v>0.05246200283213256</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>179</v>
+      </c>
+      <c r="J46" t="n">
+        <v>300</v>
+      </c>
+      <c r="K46" t="n">
+        <v>82.7284405698673</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4888425722.706759</v>
+        <v>3224974245.315578</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1582993647578452</v>
+        <v>0.199279942895136</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04361474635807604</v>
+        <v>0.05772980253983515</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>134</v>
+      </c>
+      <c r="J47" t="n">
+        <v>299</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2978937684.780648</v>
+        <v>3049451418.590372</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1018096786000207</v>
+        <v>0.09238163058883678</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03844185760149418</v>
+        <v>0.02659442216887386</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>150</v>
+      </c>
+      <c r="J48" t="n">
+        <v>299</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1517268148.50041</v>
+        <v>1289503410.274583</v>
       </c>
       <c r="F49" t="n">
-        <v>0.156755183130882</v>
+        <v>0.1753984317846571</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03806243678640681</v>
+        <v>0.0432612755705519</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4221248148.51879</v>
+        <v>2918463866.216464</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1086474425414928</v>
+        <v>0.1744770914741313</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0528123758608311</v>
+        <v>0.03627674830226825</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>96</v>
+      </c>
+      <c r="J50" t="n">
+        <v>300</v>
+      </c>
+      <c r="K50" t="n">
+        <v>56.61742973656037</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1080887681.840131</v>
+        <v>1524052819.156354</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1417699098440269</v>
+        <v>0.1432706194611887</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04038048866640037</v>
+        <v>0.04447858308948506</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4204560275.391231</v>
+        <v>5022866236.927526</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08447127672711424</v>
+        <v>0.09421249759333111</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04686232885848548</v>
+        <v>0.05804716849793954</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>185</v>
+      </c>
+      <c r="J52" t="n">
+        <v>300</v>
+      </c>
+      <c r="K52" t="n">
+        <v>81.06591332694062</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3090938088.456785</v>
+        <v>3302304399.091124</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1704119676143044</v>
+        <v>0.1421872372599216</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03368858386231383</v>
+        <v>0.03329495518757619</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>293</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3326514316.530836</v>
+        <v>3455623947.915149</v>
       </c>
       <c r="F54" t="n">
-        <v>0.168496587154891</v>
+        <v>0.1649347283686734</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05034584122206642</v>
+        <v>0.04342574266938074</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>158</v>
+      </c>
+      <c r="J54" t="n">
+        <v>298</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4891052765.911036</v>
+        <v>4091616098.665939</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2231951776624506</v>
+        <v>0.2144263771556403</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02788345760863899</v>
+        <v>0.02363290148351687</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>138</v>
+      </c>
+      <c r="J55" t="n">
+        <v>301</v>
+      </c>
+      <c r="K55" t="n">
+        <v>84.91299092116175</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1572993008.111943</v>
+        <v>1207522408.007157</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1159605613512105</v>
+        <v>0.09963174425333797</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03801984947141863</v>
+        <v>0.05145848301622385</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2444,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3822586060.509512</v>
+        <v>3022679144.489929</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1141674603170419</v>
+        <v>0.150074627658882</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02355629438964168</v>
+        <v>0.0248498545761207</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>124</v>
+      </c>
+      <c r="J57" t="n">
+        <v>300</v>
+      </c>
+      <c r="K57" t="n">
+        <v>55.09446328101669</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1353239204.067513</v>
+        <v>1771126121.224377</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1776129241152611</v>
+        <v>0.1373645408476398</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03952914040264008</v>
+        <v>0.02972265673929309</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3438251512.025606</v>
+        <v>3954188606.597936</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08903639344207832</v>
+        <v>0.08873916102974688</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04884025872643526</v>
+        <v>0.03993848452791295</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>145</v>
+      </c>
+      <c r="J59" t="n">
+        <v>301</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3533573203.837625</v>
+        <v>3701522143.588154</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1881935413823953</v>
+        <v>0.1662196880895081</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02829378786733592</v>
+        <v>0.0213384365563893</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>301</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2084482952.754107</v>
+        <v>2775439885.050278</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1196388191944585</v>
+        <v>0.1537567143557479</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02876732035752603</v>
+        <v>0.02355879165159022</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1460227011.599263</v>
+        <v>1430397425.374794</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1653792689915002</v>
+        <v>0.1263681419105859</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04190554231744659</v>
+        <v>0.03286225620568668</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4405294430.868259</v>
+        <v>3678321435.151023</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100191598966485</v>
+        <v>0.08581719204317631</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03817034402078054</v>
+        <v>0.04539881853386191</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>146</v>
+      </c>
+      <c r="J63" t="n">
+        <v>301</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3584174553.329654</v>
+        <v>5003314506.669269</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1677501048137189</v>
+        <v>0.1468655313519638</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03112725589768239</v>
+        <v>0.02385533692441145</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>148</v>
+      </c>
+      <c r="J64" t="n">
+        <v>300</v>
+      </c>
+      <c r="K64" t="n">
+        <v>81.1317199455091</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4193679740.637278</v>
+        <v>5319839944.995201</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1341129768721402</v>
+        <v>0.1129035028396706</v>
       </c>
       <c r="G65" t="n">
-        <v>0.028287969091408</v>
+        <v>0.02528610009431784</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>239</v>
+      </c>
+      <c r="J65" t="n">
+        <v>301</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2763,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4937142567.89274</v>
+        <v>4750276902.255262</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1559800168356127</v>
+        <v>0.1484393244630374</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03225969798085958</v>
+        <v>0.03125843613398431</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>148</v>
+      </c>
+      <c r="J66" t="n">
+        <v>301</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3001663047.542807</v>
+        <v>3310198866.980789</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09840465630261204</v>
+        <v>0.1019265776184475</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04307166825575957</v>
+        <v>0.03208648839037334</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2833,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5635955530.545681</v>
+        <v>4257842770.302989</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1093534424986193</v>
+        <v>0.1173880449170886</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0380096362724627</v>
+        <v>0.04761212756645494</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>160</v>
+      </c>
+      <c r="J68" t="n">
+        <v>300</v>
+      </c>
+      <c r="K68" t="n">
+        <v>82.45672518163632</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2197235174.190773</v>
+        <v>1995405017.265962</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1498918102309354</v>
+        <v>0.1695619871166824</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03659922008684931</v>
+        <v>0.05140298387048876</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2899,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3158793265.007952</v>
+        <v>3599368045.597841</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07074846670688122</v>
+        <v>0.08941736626182978</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04229493798248801</v>
+        <v>0.03773942343998265</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>45</v>
+      </c>
+      <c r="J70" t="n">
+        <v>300</v>
+      </c>
+      <c r="K70" t="n">
+        <v>76.9449211843081</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3936377495.700961</v>
+        <v>4936115837.340213</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1825823689738943</v>
+        <v>0.1174475872769826</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02899643482494604</v>
+        <v>0.02287310521551204</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>225</v>
+      </c>
+      <c r="J71" t="n">
+        <v>300</v>
+      </c>
+      <c r="K71" t="n">
+        <v>83.33187270563053</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1381632854.526888</v>
+        <v>2064272754.941028</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07492066032968714</v>
+        <v>0.08521233044635429</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04685935930998837</v>
+        <v>0.0416552866825422</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2713442847.378043</v>
+        <v>2875879418.716184</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07619101075539055</v>
+        <v>0.07596650377186391</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04974088707218812</v>
+        <v>0.0354338474251216</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>295</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3919229783.055086</v>
+        <v>3020380789.341141</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1813041793833211</v>
+        <v>0.1261787152728878</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02612227261659621</v>
+        <v>0.0258320900919593</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1615821204.128513</v>
+        <v>2000418153.369498</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1025753359586085</v>
+        <v>0.1128955902184933</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03245946689242007</v>
+        <v>0.02463606542555611</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5104131528.411662</v>
+        <v>4988917147.128356</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1224099572529954</v>
+        <v>0.08002078472857684</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02942324170436066</v>
+        <v>0.03121819170104491</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>141</v>
+      </c>
+      <c r="J76" t="n">
+        <v>301</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1753948485.186488</v>
+        <v>2010299320.623757</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1495687590094943</v>
+        <v>0.1265881423565831</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01941729389841765</v>
+        <v>0.02347284708410967</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4041447066.591931</v>
+        <v>4758128484.058059</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09054173464269835</v>
+        <v>0.1277624249086075</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05226807726639746</v>
+        <v>0.03647097570699607</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>149</v>
+      </c>
+      <c r="J78" t="n">
+        <v>301</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1527816611.828199</v>
+        <v>1743754500.541811</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1564391010460907</v>
+        <v>0.1608184542207581</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02617677233552712</v>
+        <v>0.03809281309878014</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3259,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4943295901.830723</v>
+        <v>3627550100.850788</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08422902348734967</v>
+        <v>0.09568059827063495</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03322817692736446</v>
+        <v>0.02352658565034897</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>147</v>
+      </c>
+      <c r="J80" t="n">
+        <v>300</v>
+      </c>
+      <c r="K80" t="n">
+        <v>60.01708899116664</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3203668675.610931</v>
+        <v>5028390027.29965</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09084746003502465</v>
+        <v>0.09704949248543454</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02623896149227451</v>
+        <v>0.02165274716397643</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>138</v>
+      </c>
+      <c r="J81" t="n">
+        <v>301</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3331,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4107940081.738246</v>
+        <v>4008553899.075841</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2095837687078631</v>
+        <v>0.1502187103547635</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02584528503177123</v>
+        <v>0.02100539480086636</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>220</v>
+      </c>
+      <c r="J82" t="n">
+        <v>300</v>
+      </c>
+      <c r="K82" t="n">
+        <v>83.55525900756223</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1910455100.79431</v>
+        <v>1969933024.501902</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09977187734657866</v>
+        <v>0.1207559594454195</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04068492320247735</v>
+        <v>0.03676310291183219</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2600915355.753462</v>
+        <v>2207780771.897721</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1076701950689368</v>
+        <v>0.08429031602215309</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05012400185734903</v>
+        <v>0.04656148926577072</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3047530307.241445</v>
+        <v>3519384992.76264</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1338219217467673</v>
+        <v>0.1761440365039722</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03575366514672277</v>
+        <v>0.04782625144758104</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2009132810.734731</v>
+        <v>2760811923.775937</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1330986695604014</v>
+        <v>0.1481871250195137</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01863116264814541</v>
+        <v>0.02585204826251256</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1368517475.976893</v>
+        <v>1076658512.790955</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1604633427800995</v>
+        <v>0.1789215745335973</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03156761569631333</v>
+        <v>0.0408158047196646</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3182816848.525838</v>
+        <v>3508512304.747264</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1382374700782954</v>
+        <v>0.1647890046041861</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03354553584401866</v>
+        <v>0.03508179367560035</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="n">
+        <v>83.6539853929396</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3200609521.673758</v>
+        <v>3321808772.792217</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1055639360507077</v>
+        <v>0.1588057967302093</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03211249179950848</v>
+        <v>0.03271223164894749</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1585359569.089809</v>
+        <v>1627158953.363572</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1187503102952017</v>
+        <v>0.1026909231672616</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05390588291013945</v>
+        <v>0.03499681085358028</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1643124499.242988</v>
+        <v>2099944496.68536</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1471144922896996</v>
+        <v>0.179921139581949</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04246936049353448</v>
+        <v>0.05838586784472063</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1805490746.220927</v>
+        <v>2083531144.068787</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0689519919974913</v>
+        <v>0.09771933358715253</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02987769167402429</v>
+        <v>0.03417263472617506</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4602148141.500788</v>
+        <v>4227523438.017743</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1241079671838214</v>
+        <v>0.1216534799376342</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04759145331880028</v>
+        <v>0.03914016837603828</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>135</v>
+      </c>
+      <c r="J93" t="n">
+        <v>300</v>
+      </c>
+      <c r="K93" t="n">
+        <v>82.16754341332161</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1925599232.242393</v>
+        <v>2502754149.916677</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1680890578805651</v>
+        <v>0.1611839084186824</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03365773338467037</v>
+        <v>0.03682146149403574</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2042331953.80799</v>
+        <v>2652412680.570297</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1026337120424868</v>
+        <v>0.08930133818528742</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0462520845008314</v>
+        <v>0.03349222451149515</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2115825947.66076</v>
+        <v>2044709294.675677</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09896127209546328</v>
+        <v>0.09395282751351537</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03967715701535737</v>
+        <v>0.03488325550855064</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4525874360.079247</v>
+        <v>4831917754.968488</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1235963624094117</v>
+        <v>0.1363731993838875</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01983766065010697</v>
+        <v>0.02777149400066403</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>150</v>
+      </c>
+      <c r="J97" t="n">
+        <v>301</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2901620224.519898</v>
+        <v>3153092207.884335</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1204795776941221</v>
+        <v>0.07855510134942202</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0220085049916652</v>
+        <v>0.03031601779143219</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>74</v>
+      </c>
+      <c r="J98" t="n">
+        <v>299</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3932,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2385185447.145237</v>
+        <v>2960248363.569496</v>
       </c>
       <c r="F99" t="n">
-        <v>0.11686670264042</v>
+        <v>0.09419094331017012</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02500442229830075</v>
+        <v>0.03166595964683137</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3967,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3290613498.959929</v>
+        <v>3178818619.478613</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1297960382733136</v>
+        <v>0.1567847798595795</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01797057510083803</v>
+        <v>0.02575379956728029</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>130</v>
+      </c>
+      <c r="J100" t="n">
+        <v>300</v>
+      </c>
+      <c r="K100" t="n">
+        <v>61.57433615029368</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3125279030.45403</v>
+        <v>3535293401.734824</v>
       </c>
       <c r="F101" t="n">
-        <v>0.221504940762931</v>
+        <v>0.1711734856656832</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04629981649098185</v>
+        <v>0.0413505029321438</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>27</v>
+      </c>
+      <c r="J101" t="n">
+        <v>301</v>
+      </c>
+      <c r="K101" t="n">
+        <v>92.10521838558738</v>
       </c>
     </row>
   </sheetData>
